--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp4-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp4-Bmpr2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.675694999999999</v>
+        <v>12.31250333333333</v>
       </c>
       <c r="H2">
-        <v>26.027085</v>
+        <v>36.93751</v>
       </c>
       <c r="I2">
-        <v>0.5592117158070719</v>
+        <v>0.6498350963072504</v>
       </c>
       <c r="J2">
-        <v>0.5592117158070719</v>
+        <v>0.6498350963072506</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.547044</v>
+        <v>45.924193</v>
       </c>
       <c r="N2">
-        <v>133.641132</v>
+        <v>137.772579</v>
       </c>
       <c r="O2">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="P2">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="Q2">
-        <v>386.47656689558</v>
+        <v>565.4417793931434</v>
       </c>
       <c r="R2">
-        <v>3478.28910206022</v>
+        <v>5088.976014538291</v>
       </c>
       <c r="S2">
-        <v>0.1725239869879224</v>
+        <v>0.2000142826723698</v>
       </c>
       <c r="T2">
-        <v>0.1725239869879224</v>
+        <v>0.2000142826723699</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.675694999999999</v>
+        <v>12.31250333333333</v>
       </c>
       <c r="H3">
-        <v>26.027085</v>
+        <v>36.93751</v>
       </c>
       <c r="I3">
-        <v>0.5592117158070719</v>
+        <v>0.6498350963072504</v>
       </c>
       <c r="J3">
-        <v>0.5592117158070719</v>
+        <v>0.6498350963072506</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>120.711086</v>
       </c>
       <c r="O3">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="P3">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="Q3">
-        <v>349.0841884182566</v>
+        <v>495.4185495817622</v>
       </c>
       <c r="R3">
-        <v>3141.75769576431</v>
+        <v>4458.766946235861</v>
       </c>
       <c r="S3">
-        <v>0.1558319472358404</v>
+        <v>0.1752448959882847</v>
       </c>
       <c r="T3">
-        <v>0.1558319472358404</v>
+        <v>0.1752448959882848</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.675694999999999</v>
+        <v>12.31250333333333</v>
       </c>
       <c r="H4">
-        <v>26.027085</v>
+        <v>36.93751</v>
       </c>
       <c r="I4">
-        <v>0.5592117158070719</v>
+        <v>0.6498350963072504</v>
       </c>
       <c r="J4">
-        <v>0.5592117158070719</v>
+        <v>0.6498350963072506</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.15970133333333</v>
+        <v>23.60320766666667</v>
       </c>
       <c r="N4">
-        <v>60.47910400000001</v>
+        <v>70.809623</v>
       </c>
       <c r="O4">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351338</v>
       </c>
       <c r="P4">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351339</v>
       </c>
       <c r="Q4">
-        <v>174.8994200590933</v>
+        <v>290.6145730731922</v>
       </c>
       <c r="R4">
-        <v>1574.09478053184</v>
+        <v>2615.53115765873</v>
       </c>
       <c r="S4">
-        <v>0.07807548466094409</v>
+        <v>0.1027993818032973</v>
       </c>
       <c r="T4">
-        <v>0.07807548466094411</v>
+        <v>0.1027993818032973</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.675694999999999</v>
+        <v>12.31250333333333</v>
       </c>
       <c r="H5">
-        <v>26.027085</v>
+        <v>36.93751</v>
       </c>
       <c r="I5">
-        <v>0.5592117158070719</v>
+        <v>0.6498350963072504</v>
       </c>
       <c r="J5">
-        <v>0.5592117158070719</v>
+        <v>0.6498350963072506</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.05764533333333</v>
+        <v>19.226538</v>
       </c>
       <c r="N5">
-        <v>48.172936</v>
+        <v>57.679614</v>
       </c>
       <c r="O5">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="P5">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="Q5">
-        <v>139.3112333301733</v>
+        <v>236.72681321346</v>
       </c>
       <c r="R5">
-        <v>1253.80109997156</v>
+        <v>2130.54131892114</v>
       </c>
       <c r="S5">
-        <v>0.06218884006186073</v>
+        <v>0.08373761094382345</v>
       </c>
       <c r="T5">
-        <v>0.06218884006186073</v>
+        <v>0.08373761094382347</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.675694999999999</v>
+        <v>12.31250333333333</v>
       </c>
       <c r="H6">
-        <v>26.027085</v>
+        <v>36.93751</v>
       </c>
       <c r="I6">
-        <v>0.5592117158070719</v>
+        <v>0.6498350963072504</v>
       </c>
       <c r="J6">
-        <v>0.5592117158070719</v>
+        <v>0.6498350963072506</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.39142333333333</v>
+        <v>20.21413933333333</v>
       </c>
       <c r="N6">
-        <v>70.17426999999999</v>
+        <v>60.64241799999999</v>
       </c>
       <c r="O6">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="P6">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="Q6">
-        <v>202.9368544558833</v>
+        <v>248.8866579221311</v>
       </c>
       <c r="R6">
-        <v>1826.43169010295</v>
+        <v>2239.97992129918</v>
       </c>
       <c r="S6">
-        <v>0.09059145686050424</v>
+        <v>0.08803892489947514</v>
       </c>
       <c r="T6">
-        <v>0.09059145686050424</v>
+        <v>0.08803892489947515</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>18.948152</v>
       </c>
       <c r="I7">
-        <v>0.407115456505913</v>
+        <v>0.3333514949915254</v>
       </c>
       <c r="J7">
-        <v>0.407115456505913</v>
+        <v>0.3333514949915254</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>44.547044</v>
+        <v>45.924193</v>
       </c>
       <c r="N7">
-        <v>133.641132</v>
+        <v>137.772579</v>
       </c>
       <c r="O7">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="P7">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="Q7">
-        <v>281.3613869542293</v>
+        <v>290.0595298137787</v>
       </c>
       <c r="R7">
-        <v>2532.252482588064</v>
+        <v>2610.535768324008</v>
       </c>
       <c r="S7">
-        <v>0.1256003401492397</v>
+        <v>0.1026030457994334</v>
       </c>
       <c r="T7">
-        <v>0.1256003401492397</v>
+        <v>0.1026030457994334</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>18.948152</v>
       </c>
       <c r="I8">
-        <v>0.407115456505913</v>
+        <v>0.3333514949915254</v>
       </c>
       <c r="J8">
-        <v>0.407115456505913</v>
+        <v>0.3333514949915254</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>120.711086</v>
       </c>
       <c r="O8">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="P8">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="Q8">
         <v>254.1391117347858</v>
@@ -948,10 +948,10 @@
         <v>2287.252005613072</v>
       </c>
       <c r="S8">
-        <v>0.1134482567940545</v>
+        <v>0.08989688060755069</v>
       </c>
       <c r="T8">
-        <v>0.1134482567940545</v>
+        <v>0.0898968806075507</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>18.948152</v>
       </c>
       <c r="I9">
-        <v>0.407115456505913</v>
+        <v>0.3333514949915254</v>
       </c>
       <c r="J9">
-        <v>0.407115456505913</v>
+        <v>0.3333514949915254</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.15970133333333</v>
+        <v>23.60320766666667</v>
       </c>
       <c r="N9">
-        <v>60.47910400000001</v>
+        <v>70.809623</v>
       </c>
       <c r="O9">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351338</v>
       </c>
       <c r="P9">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351339</v>
       </c>
       <c r="Q9">
-        <v>127.3296950462009</v>
+        <v>149.0790555185218</v>
       </c>
       <c r="R9">
-        <v>1145.967255415808</v>
+        <v>1341.711499666696</v>
       </c>
       <c r="S9">
-        <v>0.05684025509692065</v>
+        <v>0.0527338824927536</v>
       </c>
       <c r="T9">
-        <v>0.05684025509692067</v>
+        <v>0.05273388249275361</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>18.948152</v>
       </c>
       <c r="I10">
-        <v>0.407115456505913</v>
+        <v>0.3333514949915254</v>
       </c>
       <c r="J10">
-        <v>0.407115456505913</v>
+        <v>0.3333514949915254</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.05764533333333</v>
+        <v>19.226538</v>
       </c>
       <c r="N10">
-        <v>48.172936</v>
+        <v>57.679614</v>
       </c>
       <c r="O10">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="P10">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="Q10">
-        <v>101.4209015126969</v>
+        <v>121.435788152592</v>
       </c>
       <c r="R10">
-        <v>912.788113614272</v>
+        <v>1092.922093373328</v>
       </c>
       <c r="S10">
-        <v>0.04527451284674509</v>
+        <v>0.04295560205006862</v>
       </c>
       <c r="T10">
-        <v>0.04527451284674509</v>
+        <v>0.04295560205006863</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>18.948152</v>
       </c>
       <c r="I11">
-        <v>0.407115456505913</v>
+        <v>0.3333514949915254</v>
       </c>
       <c r="J11">
-        <v>0.407115456505913</v>
+        <v>0.3333514949915254</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.39142333333333</v>
+        <v>20.21413933333333</v>
       </c>
       <c r="N11">
-        <v>70.17426999999999</v>
+        <v>60.64241799999999</v>
       </c>
       <c r="O11">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="P11">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="Q11">
-        <v>147.7414149387822</v>
+        <v>127.6735282123929</v>
       </c>
       <c r="R11">
-        <v>1329.67273444904</v>
+        <v>1149.061753911536</v>
       </c>
       <c r="S11">
-        <v>0.06595209161895299</v>
+        <v>0.0451620840417191</v>
       </c>
       <c r="T11">
-        <v>0.06595209161895299</v>
+        <v>0.04516208404171911</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.5224053333333333</v>
+        <v>0.3185656666666667</v>
       </c>
       <c r="H12">
-        <v>1.567216</v>
+        <v>0.955697</v>
       </c>
       <c r="I12">
-        <v>0.03367282768701512</v>
+        <v>0.01681340870122405</v>
       </c>
       <c r="J12">
-        <v>0.03367282768701512</v>
+        <v>0.01681340870122405</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.547044</v>
+        <v>45.924193</v>
       </c>
       <c r="N12">
-        <v>133.641132</v>
+        <v>137.772579</v>
       </c>
       <c r="O12">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="P12">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="Q12">
-        <v>23.27161336983466</v>
+        <v>14.62987115917367</v>
       </c>
       <c r="R12">
-        <v>209.444520328512</v>
+        <v>131.668840432563</v>
       </c>
       <c r="S12">
-        <v>0.01038849924189604</v>
+        <v>0.005175038867187741</v>
       </c>
       <c r="T12">
-        <v>0.01038849924189604</v>
+        <v>0.005175038867187741</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.5224053333333333</v>
+        <v>0.3185656666666667</v>
       </c>
       <c r="H13">
-        <v>1.567216</v>
+        <v>0.955697</v>
       </c>
       <c r="I13">
-        <v>0.03367282768701512</v>
+        <v>0.01681340870122405</v>
       </c>
       <c r="J13">
-        <v>0.03367282768701512</v>
+        <v>0.01681340870122405</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>120.711086</v>
       </c>
       <c r="O13">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="P13">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="Q13">
-        <v>21.02003837295289</v>
+        <v>12.81813586188245</v>
       </c>
       <c r="R13">
-        <v>189.180345356576</v>
+        <v>115.363222756942</v>
       </c>
       <c r="S13">
-        <v>0.009383391225685276</v>
+        <v>0.004534171939616823</v>
       </c>
       <c r="T13">
-        <v>0.009383391225685277</v>
+        <v>0.004534171939616823</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.5224053333333333</v>
+        <v>0.3185656666666667</v>
       </c>
       <c r="H14">
-        <v>1.567216</v>
+        <v>0.955697</v>
       </c>
       <c r="I14">
-        <v>0.03367282768701512</v>
+        <v>0.01681340870122405</v>
       </c>
       <c r="J14">
-        <v>0.03367282768701512</v>
+        <v>0.01681340870122405</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.15970133333333</v>
+        <v>23.60320766666667</v>
       </c>
       <c r="N14">
-        <v>60.47910400000001</v>
+        <v>70.809623</v>
       </c>
       <c r="O14">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351338</v>
       </c>
       <c r="P14">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351339</v>
       </c>
       <c r="Q14">
-        <v>10.53153549494044</v>
+        <v>7.519171585803445</v>
       </c>
       <c r="R14">
-        <v>94.78381945446401</v>
+        <v>67.67254427223101</v>
       </c>
       <c r="S14">
-        <v>0.004701300540125264</v>
+        <v>0.002659764039082922</v>
       </c>
       <c r="T14">
-        <v>0.004701300540125265</v>
+        <v>0.002659764039082922</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.5224053333333333</v>
+        <v>0.3185656666666667</v>
       </c>
       <c r="H15">
-        <v>1.567216</v>
+        <v>0.955697</v>
       </c>
       <c r="I15">
-        <v>0.03367282768701512</v>
+        <v>0.01681340870122405</v>
       </c>
       <c r="J15">
-        <v>0.03367282768701512</v>
+        <v>0.01681340870122405</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>16.05764533333333</v>
+        <v>19.226538</v>
       </c>
       <c r="N15">
-        <v>48.172936</v>
+        <v>57.679614</v>
       </c>
       <c r="O15">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="P15">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="Q15">
-        <v>8.388599562908443</v>
+        <v>6.124914895662001</v>
       </c>
       <c r="R15">
-        <v>75.49739606617599</v>
+        <v>55.124234060958</v>
       </c>
       <c r="S15">
-        <v>0.003744689240704026</v>
+        <v>0.002166572234191727</v>
       </c>
       <c r="T15">
-        <v>0.003744689240704026</v>
+        <v>0.002166572234191727</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.5224053333333333</v>
+        <v>0.3185656666666667</v>
       </c>
       <c r="H16">
-        <v>1.567216</v>
+        <v>0.955697</v>
       </c>
       <c r="I16">
-        <v>0.03367282768701512</v>
+        <v>0.01681340870122405</v>
       </c>
       <c r="J16">
-        <v>0.03367282768701512</v>
+        <v>0.01681340870122405</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.39142333333333</v>
+        <v>20.21413933333333</v>
       </c>
       <c r="N16">
-        <v>70.17426999999999</v>
+        <v>60.64241799999999</v>
       </c>
       <c r="O16">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="P16">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="Q16">
-        <v>12.21980430359111</v>
+        <v>6.439530772816222</v>
       </c>
       <c r="R16">
-        <v>109.97823873232</v>
+        <v>57.955776955346</v>
       </c>
       <c r="S16">
-        <v>0.005454947438604516</v>
+        <v>0.002277861621144839</v>
       </c>
       <c r="T16">
-        <v>0.005454947438604516</v>
+        <v>0.002277861621144839</v>
       </c>
     </row>
   </sheetData>
